--- a/data/brent price.xlsx
+++ b/data/brent price.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucruffie/Desktop/Imperial/thesis/VAR model/GasPriceDecomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B9CF08-D472-BF4E-A3C3-92B0867C883D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB00E9F-E099-2A42-9E64-C0733072529F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="880" windowWidth="27320" windowHeight="15900" xr2:uid="{95A3DC4A-EE4A-C34D-8D2F-E4941A96392C}"/>
   </bookViews>
   <sheets>
     <sheet name="brent price" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'brent price'!$A$201:$A$422</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'brent price'!$B$201:$B$422</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'brent price'!$C$201:$C$422</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'brent price'!$D$201:$D$422</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,6 +126,5067 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Brent</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Price USD vs GBP and exchange rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'brent price'!$A$201:$A$422</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="222"/>
+                <c:pt idx="0">
+                  <c:v>37970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38336</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38457</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38487</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38518</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38548</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38579</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38610</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38640</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38671</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38701</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38732</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38763</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38791</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38822</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38852</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38883</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38913</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38944</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38975</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39036</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39066</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39097</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39128</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39187</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>39217</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39248</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>39278</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>39309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39340</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39370</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39431</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39462</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39493</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39522</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39553</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39583</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39614</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39644</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39675</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>39706</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>39736</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>39767</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39797</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>39828</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39859</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39887</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39918</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39948</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39979</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40009</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40040</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40071</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40101</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40132</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40162</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40193</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40224</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40252</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40283</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40313</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40344</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40374</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40405</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40436</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40466</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40497</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>40527</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40558</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>40589</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40648</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>40678</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40709</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40739</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40770</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>40801</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40831</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>40862</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40892</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>40923</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40954</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40983</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41014</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41044</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41075</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41105</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41136</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41167</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41197</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41228</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41258</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41289</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41320</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41348</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41379</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41409</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41470</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41501</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41532</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41562</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41593</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41654</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41685</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41713</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41744</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41835</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41866</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41897</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41927</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41958</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41988</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>42019</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42050</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42109</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42139</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42170</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>42200</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>42231</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>42262</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>42292</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>42323</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>42353</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>42384</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>42415</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>42444</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>42475</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>42719</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>42750</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>42931</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42962</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42993</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43023</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43054</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43084</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43146</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43174</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43205</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43235</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43266</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43296</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>43327</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43358</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43388</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43419</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43449</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43480</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43511</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43539</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43570</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43600</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43631</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43661</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43692</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43723</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43753</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43784</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43814</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43845</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44301</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44331</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44362</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44423</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44576</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44607</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44635</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'brent price'!$B$201:$B$422</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="222"/>
+                <c:pt idx="0">
+                  <c:v>29.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63.98</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62.91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>58.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.86</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62.99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69.78</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.56</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>73.67</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.23</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.96</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57.81</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>58.76</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62.47</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>53.68</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>57.56</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>62.05</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>67.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>71.05</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>76.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>70.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>77.17</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>82.34</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>92.41</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>90.93</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>92.18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>94.99</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>103.64</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>109.07</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>122.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>132.32</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>132.72</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>113.24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>97.23</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>71.58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>52.45</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43.44</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43.32</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>46.54</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>50.18</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68.61</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>64.44</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>72.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>67.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72.77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76.66</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76.17</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>73.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>78.83</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>84.82</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>75.95</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>74.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>75.58</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>77.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>77.84</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82.67</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85.28</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91.45</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>96.52</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>103.72</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>114.64</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>123.26</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>114.99</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>113.83</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>116.97</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>110.22</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>112.83</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>109.55</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>110.77</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>107.87</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>110.69</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>119.33</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>125.45</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>119.75</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>110.34</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>95.16</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>102.62</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>113.36</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>112.86</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>111.71</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>109.06</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109.49</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>112.96</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>116.05</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>108.47</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>102.25</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>102.56</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>102.92</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>107.93</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>111.28</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>111.6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>109.08</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>107.79</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>110.76</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>108.12</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>108.9</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>107.48</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>107.76</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>109.54</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>111.8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>106.77</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>101.61</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>97.09</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>87.43</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>79.44</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>62.34</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>47.76</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>55.89</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>59.52</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>64.08</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>61.48</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>56.56</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>46.52</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>47.62</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>48.43</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44.27</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>38.01</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>32.18</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>38.21</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>41.58</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>46.74</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44.95</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>45.84</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>46.57</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>49.52</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44.73</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>53.31</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>54.58</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>54.87</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>51.59</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>52.31</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>50.33</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>46.37</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>48.48</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>51.7</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>56.15</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>57.51</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>62.71</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>64.37</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>69.08</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>65.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>66.02</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>72.11</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>76.98</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>74.41</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>74.25</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>72.53</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>78.89</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>81.03</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>64.75</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>57.36</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>59.41</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>63.96</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>66.14</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>71.23</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>71.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>64.22</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>63.92</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>59.04</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>62.83</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>59.71</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>63.21</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>67.31</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>63.65</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>55.66</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>32.01</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>18.38</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>29.38</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>40.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43.24</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44.74</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>40.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>40.19</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>42.69</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>49.99</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>54.77</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>62.28</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>65.41</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>64.81</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>68.53</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>73.16</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>75.17</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>70.75</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>74.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>83.54</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>81.05</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>74.17</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>86.51</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>97.13</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>117.25</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>104.58</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>113.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45F4-744F-926B-E6C282757A99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'brent price'!$A$201:$A$422</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="222"/>
+                <c:pt idx="0">
+                  <c:v>37970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38336</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38457</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38487</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38518</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38548</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38579</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38610</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38640</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38671</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38701</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38732</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38763</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38791</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38822</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38852</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38883</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38913</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38944</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38975</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39036</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39066</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39097</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39128</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39187</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>39217</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39248</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>39278</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>39309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39340</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39370</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39431</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39462</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39493</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39522</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39553</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39583</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39614</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39644</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39675</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>39706</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>39736</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>39767</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39797</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>39828</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39859</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39887</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39918</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39948</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39979</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40009</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40040</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40071</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40101</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40132</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40162</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40193</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40224</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40252</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40283</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40313</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40344</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40374</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40405</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40436</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40466</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40497</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>40527</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40558</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>40589</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40648</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>40678</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40709</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40739</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40770</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>40801</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40831</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>40862</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40892</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>40923</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40954</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40983</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41014</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41044</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41075</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41105</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41136</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41167</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41197</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41228</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41258</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41289</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41320</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41348</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41379</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41409</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41470</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41501</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41532</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41562</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41593</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41654</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41685</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41713</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41744</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41835</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41866</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41897</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41927</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41958</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41988</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>42019</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42050</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42109</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42139</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42170</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>42200</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>42231</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>42262</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>42292</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>42323</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>42353</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>42384</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>42415</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>42444</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>42475</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>42719</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>42750</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>42931</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42962</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42993</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43023</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43054</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43084</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43146</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43174</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43205</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43235</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43266</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43296</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>43327</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43358</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43388</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43419</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43449</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43480</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43511</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43539</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43570</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43600</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43631</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43661</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43692</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43723</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43753</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43784</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43814</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43845</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44301</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44331</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44362</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44423</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44576</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44607</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44635</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'brent price'!$D$201:$D$422</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="222"/>
+                <c:pt idx="0">
+                  <c:v>16.664682110427417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.14456408246711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.463188555789991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.24360171987853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.885640391319019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.500815776406327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.327535805111633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.975900764561157</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.711722267715</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.830420082865874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.032530810731558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.575408462505237</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.627245361604466</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.622795280960538</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.697349210765722</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.1026429186103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.179408193009426</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.764798760622021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.358277951120659</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.786399344272013</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.477549553785806</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.651098661341194</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.096183592795953</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.913811909559819</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.044748726824075</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.415495333408302</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34.323318707491332</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35.713669139269498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38.513719073500035</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37.283448243435593</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.079301896690659</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39.433341754914849</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38.479444525598844</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.103365740367245</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30.294169433544624</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29.881805153950285</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31.885316982516922</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27.340300152490421</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29.307252119251395</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.526363762921743</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.744999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.947770640153628</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.377933928658564</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37.908017498888825</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35.078569849285095</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.72146144389562</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39.590725942166962</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44.931593702867048</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45.771439789389973</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>46.307552883446434</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47.815122243419694</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.232479893720715</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54.869843218239303</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62.036118357639232</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>66.392873002054699</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>66.925385658039119</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62.545843385738401</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>54.559656492447616</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44.534201370742558</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>34.174323582954671</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27.25827471155355</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.13954107969494</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30.340468806468149</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32.44349575529769</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>33.932712067616578</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>35.417134104845843</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41.665477410096756</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>38.575069035844763</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44.506642851224072</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42.275833408844491</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.242703176269814</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46.579369337456164</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46.014032858691309</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>47.677856180250714</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>48.582062514409934</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>51.917448425023643</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>55.437509926399215</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>52.299922669107097</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>50.025661906555868</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>48.145984638895555</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>49.812524125516703</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>49.278953442657823</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>52.408628817328633</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>54.820550763971433</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>59.240401370723781</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>60.975532714649418</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>64.420479650594046</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>71.319833744658325</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>74.029941105175851</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>69.742603153731523</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>70.807943328763344</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>71.460470697052685</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>67.587994086203821</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>72.329658621704283</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>67.993306802185714</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>71.015742453335207</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>69.973118698073165</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>70.46525914396392</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>74.94637939210088</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>78.323471880656129</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>73.550457149104432</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>71.265304698898589</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>60.584568506847596</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>65.307358883092704</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>71.790864143895845</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>69.903215696573227</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>69.494774050224606</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>67.987983345250669</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>67.741472456709545</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>71.503672349107049</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>76.511775099554299</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>71.375412825201636</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>65.992137738660801</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>67.344975556584288</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>67.691510345449018</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>70.810731371916106</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>71.742217987259437</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>69.021264857971431</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>68.06375829503655</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>65.850002016003401</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>67.147132000252199</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>65.533706945772863</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>65.240912102698431</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>64.576133507010368</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>64.050403435517183</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>65.361427091637267</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>65.633323412017006</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>63.139518999513307</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>61.244417120228562</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>59.7763849724791</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>54.640266682998963</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>50.88051341666106</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>40.040978736660236</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>31.692103516921037</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>37.634286713671742</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>37.740282839414384</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>38.582057528233229</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41.830133624037963</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>39.079756902045709</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>36.246465713253031</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>30.172408201810086</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>31.415857685241075</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>31.388942899734268</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>29.436895527945769</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>25.649140541229929</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>21.549863365442864</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>23.214643837731227</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>26.58270030422965</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>28.446135006259791</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>31.936984244011136</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>35.831407472537919</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>34.010954629613515</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>35.017172470269017</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>35.92410656430701</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>40.537067022048177</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>35.806371821113828</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43.200832412212598</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>43.664000000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44.109986365858049</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>41.343209544118793</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>40.451328877578092</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>39.292623479391864</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>35.638581589064174</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>36.881167781926401</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>40.013745534249288</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>41.913181863647424</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43.527028990772358</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>46.738375403585245</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>47.624790342163074</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>48.799509461792553</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>46.972259615937773</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>47.099983662683641</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>52.363396598811853</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>57.951332323563861</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>56.328368422805681</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>56.526508839071127</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>55.745095884178092</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>60.540203714063601</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>63.758468474848328</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>50.647466257836669</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45.188197498262902</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>45.291816216315112</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>48.024363579572082</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>50.701612501389427</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>55.078589251981263</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>56.559632663742988</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>50.582900585145389</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>52.558873832390482</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>48.55686433192367</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>51.109681229495727</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>46.280615080303185</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>48.886310904872396</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>51.330623052032976</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>48.628619451447783</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43.421989813073246</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>25.873691766006772</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>14.737637183106722</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>23.799128229346479</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>32.71172658942681</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>32.962718738207862</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>33.496849469321262</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>31.795649801733799</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>31.037121756798392</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>32.020918233021376</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>36.674673126613087</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>39.960572041024342</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44.709260588657571</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>47.582501918649271</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>46.449325011968895</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>48.327370865499276</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>52.850770258799734</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>54.063539942793483</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>51.415432332930727</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>55.480165226471392</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>61.022644265887514</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>60.870969316675492</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>54.9473751275154</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>64.543372982506668</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>72.62995512690614</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>89.238961007330914</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>83.165076075607217</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>89.617949524868308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-45F4-744F-926B-E6C282757A99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1028322159"/>
+        <c:axId val="1028198879"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'brent price'!$A$201:$A$422</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="222"/>
+                <c:pt idx="0">
+                  <c:v>37970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38336</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38457</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38487</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38518</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38548</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38579</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38610</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38640</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38671</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38701</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38732</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38763</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38791</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38822</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38852</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38883</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38913</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38944</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38975</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39036</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39066</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39097</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39128</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39187</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>39217</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39248</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>39278</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>39309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39340</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39370</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39431</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39462</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39493</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39522</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39553</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39583</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39614</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39644</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39675</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>39706</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>39736</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>39767</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39797</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>39828</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39859</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39887</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39918</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39948</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39979</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40009</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40040</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40071</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40101</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40132</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40162</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40193</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40224</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40252</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40283</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40313</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40344</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40374</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40405</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40436</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40466</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40497</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>40527</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40558</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>40589</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40648</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>40678</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40709</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40739</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40770</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>40801</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40831</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>40862</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40892</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>40923</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40954</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40983</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41014</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41044</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41075</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41105</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41136</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41167</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41197</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41228</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41258</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41289</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41320</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41348</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41379</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41409</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41470</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41501</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41532</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41562</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41593</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41654</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41685</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41713</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41744</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41835</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41866</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41897</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41927</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41958</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41988</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>42019</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42050</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42109</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42139</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42170</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>42200</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>42231</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>42262</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>42292</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>42323</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>42353</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>42384</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>42415</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>42444</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>42475</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>42719</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>42750</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>42931</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42962</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42993</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43023</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43054</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43084</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43146</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43174</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43205</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43235</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43266</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43296</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>43327</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43358</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43388</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43419</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43449</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43480</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43511</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43539</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43570</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43600</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43631</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43661</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43692</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43723</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43753</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43784</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43814</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43845</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44301</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44331</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44362</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44423</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44576</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44607</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44635</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'brent price'!$C$201:$C$422</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="222"/>
+                <c:pt idx="0">
+                  <c:v>1.788813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8244849999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.874485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.843386</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7786</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8326100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.820201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8220909999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.802484</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8128089999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.841485</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.919791</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8841969999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9192020000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.889502</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.908798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8176859999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.790286</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.754386</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8033939999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.764602</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7687839999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.730912</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7206969999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7786</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7542009999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7377100000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8242849999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8716079999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.84901</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8682160000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9030940000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.871713</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.908288</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9664140000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.959209</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9634020000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.964019</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.968194</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.979806</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.0083139999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.0293860000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0171860000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.045785</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.07978</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0566819999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.98661</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.990604</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.98661</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9842059999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.987795</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.979492</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.992985</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.983104</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.8105119999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7820860000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6073040000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.534778</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4656100000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4412959999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4277960000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.4344939999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.478809</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.617861</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.646687</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.670509</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6291949999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6002050000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6447909999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.6457930000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6182019999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5975969999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.5180499999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5183720000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.530011</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.4522010000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.4944329999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.569809</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5465990000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5795790000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.577412</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5556209999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5437099999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5829299999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.610047</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.607407</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.6650020000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6487769999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.607588</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.636849</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.630763</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.559941</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.6111880000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.559795</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.5415920000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.570845</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.5922050000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.601691</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.628134</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.5482990000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.570697</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.571339</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.5790310000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.6145179999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.607459</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.6041069999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.6162920000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.579779</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.5167600000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.519711</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.5494270000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.522905</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.520427</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.5242039999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.5511090000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.6168929999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.6026149999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.6369020000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.6495120000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.6498379999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.669198</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.6643920000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.6824250000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.6759120000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.703403</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.691017</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.65909</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.62422</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.6001019999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.5613049999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.556905</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.5069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.5438050000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.4809110000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.542686</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.5319100000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.5731930000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.5604279999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.541806</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.515795</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.5428999999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.503895</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.481921</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.4246030000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.3861939999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.4374009999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.4617100000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.4635069999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.346584</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.3216330000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.309072</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.2963439999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.221598</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.2492190000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.2340040000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.2439359999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.2478469999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.2931589999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.280902</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.301118</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.314492</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.2920560000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.339674</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.321248</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.3417239999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.351607</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.4155880000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.3906080000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.401699</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.3771070000000001</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.3283560000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.3210040000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.3135429999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.3011010000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.3031010000000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.2708900000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.2784450000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.269358</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.3117160000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.3318239999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.304495</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.2932429999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.2609699999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.2695989999999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.2161599999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.215894</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.229317</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.290173</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.2929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.3113030000000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.3089</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.281839</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.2371639999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.247147</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.234499</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.2310570000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.311785</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.3356479999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.286654</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.2949010000000001</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.333191</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.3630660000000001</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.370601</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.393</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.374665</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.395284</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.418037</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.3842749999999999</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.390401</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.3760460000000001</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.3426419999999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.369</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.3315049999999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.349837</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.3403389999999999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.3373269999999999</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.3138879999999999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.2574989999999999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.264702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-45F4-744F-926B-E6C282757A99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1047298991"/>
+        <c:axId val="1047495087"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1028322159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1028198879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1028198879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1028322159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1047495087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1047298991"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="1047298991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1047495087"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747300FF-E123-C0C1-0888-022E607E9408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,8 +5488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137F14FC-8755-6A4F-B6A7-0F9B8DFBB15E}">
   <dimension ref="A1:D425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="G421" sqref="G421"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B271" sqref="B271:B422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4945,7 +10012,7 @@
         <v>1.3089</v>
       </c>
       <c r="D394">
-        <f t="shared" ref="D394:D424" si="3">B394/C394</f>
+        <f t="shared" ref="D394:D422" si="3">B394/C394</f>
         <v>48.628619451447783</v>
       </c>
     </row>
@@ -5384,5 +10451,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/brent price.xlsx
+++ b/data/brent price.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucruffie/Desktop/Imperial/thesis/VAR model/GasPriceDecomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB00E9F-E099-2A42-9E64-C0733072529F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EC622B-A8A8-424E-9D5E-E56B618F2F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="880" windowWidth="27320" windowHeight="15900" xr2:uid="{95A3DC4A-EE4A-C34D-8D2F-E4941A96392C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{95A3DC4A-EE4A-C34D-8D2F-E4941A96392C}"/>
   </bookViews>
   <sheets>
     <sheet name="brent price" sheetId="1" r:id="rId1"/>
+    <sheet name="brent gas compared " sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'brent price'!$A$201:$A$422</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'brent price'!$B$201:$B$422</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'brent price'!$C$201:$C$422</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'brent price'!$D$201:$D$422</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +58,12 @@
   <si>
     <t>calculation</t>
   </si>
+  <si>
+    <t>NBP £/MWh</t>
+  </si>
+  <si>
+    <t>Brent £/barrel</t>
+  </si>
 </sst>
 </file>
 
@@ -71,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +84,13 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,12 +113,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4512,6 +4521,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1047495087"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
@@ -4592,6 +4602,3005 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'brent gas compared '!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brent £/barrel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'brent gas compared '!$A$2:$A$223</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="222"/>
+                <c:pt idx="0">
+                  <c:v>37970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38336</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38457</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38487</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38518</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38548</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38579</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38610</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38640</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38671</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38701</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38732</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38763</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38791</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38822</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38852</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38883</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38913</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38944</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38975</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39036</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39066</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39097</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39128</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39187</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>39217</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39248</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>39278</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>39309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39340</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39370</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39431</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39462</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39493</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39522</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39553</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39583</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39614</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39644</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39675</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>39706</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>39736</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>39767</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39797</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>39828</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39859</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39887</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39918</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39948</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39979</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40009</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40040</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40071</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40101</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40132</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40162</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40193</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40224</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40252</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40283</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40313</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40344</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40374</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40405</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40436</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40466</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40497</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>40527</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40558</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>40589</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40648</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>40678</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40709</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40739</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40770</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>40801</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40831</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>40862</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40892</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>40923</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40954</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40983</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41014</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41044</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41075</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41105</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41136</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41167</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41197</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41228</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41258</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41289</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41320</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41348</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41379</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41409</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41470</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41501</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41532</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41562</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41593</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41654</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41685</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41713</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41744</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41835</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41866</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41897</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41927</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41958</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41988</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>42019</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42050</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42109</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42139</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42170</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>42200</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>42231</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>42262</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>42292</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>42323</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>42353</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>42384</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>42415</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>42444</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>42475</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>42719</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>42750</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>42931</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42962</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42993</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43023</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43054</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43084</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43146</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43174</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43205</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43235</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43266</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43296</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>43327</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43358</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43388</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43419</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43449</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43480</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43511</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43539</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43570</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43600</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43631</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43661</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43692</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43723</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43753</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43784</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43814</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43845</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44301</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44331</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44362</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44423</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44576</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44607</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44635</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'brent gas compared '!$B$2:$B$223</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="222"/>
+                <c:pt idx="0">
+                  <c:v>16.664682110427417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.14456408246711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.463188555789991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.24360171987853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.885640391319019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.500815776406327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.327535805111633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.975900764561157</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.711722267715</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.830420082865874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.032530810731558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.575408462505237</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.627245361604466</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.622795280960538</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.697349210765722</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.1026429186103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.179408193009426</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.764798760622021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.358277951120659</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.786399344272013</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.477549553785806</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.651098661341194</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.096183592795953</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.913811909559819</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.044748726824075</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.415495333408302</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34.323318707491332</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35.713669139269498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38.513719073500035</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37.283448243435593</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.079301896690659</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39.433341754914849</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38.479444525598844</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.103365740367245</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30.294169433544624</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29.881805153950285</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31.885316982516922</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27.340300152490421</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29.307252119251395</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.526363762921743</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.744999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.947770640153628</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.377933928658564</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37.908017498888825</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35.078569849285095</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.72146144389562</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39.590725942166962</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44.931593702867048</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45.771439789389973</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>46.307552883446434</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47.815122243419694</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.232479893720715</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54.869843218239303</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62.036118357639232</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>66.392873002054699</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>66.925385658039119</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62.545843385738401</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>54.559656492447616</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44.534201370742558</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>34.174323582954671</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27.25827471155355</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.13954107969494</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30.340468806468149</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32.44349575529769</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>33.932712067616578</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>35.417134104845843</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41.665477410096756</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>38.575069035844763</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44.506642851224072</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42.275833408844491</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.242703176269814</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46.579369337456164</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46.014032858691309</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>47.677856180250714</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>48.582062514409934</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>51.917448425023643</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>55.437509926399215</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>52.299922669107097</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>50.025661906555868</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>48.145984638895555</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>49.812524125516703</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>49.278953442657823</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>52.408628817328633</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>54.820550763971433</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>59.240401370723781</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>60.975532714649418</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>64.420479650594046</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>71.319833744658325</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>74.029941105175851</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>69.742603153731523</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>70.807943328763344</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>71.460470697052685</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>67.587994086203821</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>72.329658621704283</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>67.993306802185714</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>71.015742453335207</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>69.973118698073165</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>70.46525914396392</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>74.94637939210088</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>78.323471880656129</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>73.550457149104432</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>71.265304698898589</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>60.584568506847596</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>65.307358883092704</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>71.790864143895845</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>69.903215696573227</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>69.494774050224606</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>67.987983345250669</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>67.741472456709545</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>71.503672349107049</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>76.511775099554299</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>71.375412825201636</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>65.992137738660801</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>67.344975556584288</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>67.691510345449018</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>70.810731371916106</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>71.742217987259437</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>69.021264857971431</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>68.06375829503655</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>65.850002016003401</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>67.147132000252199</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>65.533706945772863</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>65.240912102698431</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>64.576133507010368</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>64.050403435517183</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>65.361427091637267</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>65.633323412017006</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>63.139518999513307</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>61.244417120228562</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>59.7763849724791</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>54.640266682998963</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>50.88051341666106</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>40.040978736660236</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>31.692103516921037</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>37.634286713671742</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>37.740282839414384</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>38.582057528233229</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41.830133624037963</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>39.079756902045709</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>36.246465713253031</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>30.172408201810086</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>31.415857685241075</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>31.388942899734268</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>29.436895527945769</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>25.649140541229929</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>21.549863365442864</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>23.214643837731227</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>26.58270030422965</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>28.446135006259791</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>31.936984244011136</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>35.831407472537919</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>34.010954629613515</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>35.017172470269017</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>35.92410656430701</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>40.537067022048177</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>35.806371821113828</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43.200832412212598</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>43.664000000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44.109986365858049</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>41.343209544118793</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>40.451328877578092</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>39.292623479391864</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>35.638581589064174</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>36.881167781926401</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>40.013745534249288</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>41.913181863647424</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43.527028990772358</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>46.738375403585245</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>47.624790342163074</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>48.799509461792553</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>46.972259615937773</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>47.099983662683641</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>52.363396598811853</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>57.951332323563861</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>56.328368422805681</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>56.526508839071127</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>55.745095884178092</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>60.540203714063601</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>63.758468474848328</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>50.647466257836669</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45.188197498262902</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>45.291816216315112</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>48.024363579572082</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>50.701612501389427</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>55.078589251981263</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>56.559632663742988</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>50.582900585145389</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>52.558873832390482</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>48.55686433192367</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>51.109681229495727</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>46.280615080303185</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>48.886310904872396</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>51.330623052032976</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>48.628619451447783</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43.421989813073246</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>25.873691766006772</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>14.737637183106722</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>23.799128229346479</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>32.71172658942681</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>32.962718738207862</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>33.496849469321262</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>31.795649801733799</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>31.037121756798392</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>32.020918233021376</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>36.674673126613087</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>39.960572041024342</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44.709260588657571</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>47.582501918649271</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>46.449325011968895</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>48.327370865499276</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>52.850770258799734</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>54.063539942793483</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>51.415432332930727</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>55.480165226471392</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>61.022644265887514</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>60.870969316675492</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>54.9473751275154</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>64.543372982506668</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>72.62995512690614</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>89.238961007330914</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>83.165076075607217</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>89.617949524868308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB8F-344E-9F23-AA00694F3203}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'brent gas compared '!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NBP £/MWh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'brent gas compared '!$A$2:$A$223</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="222"/>
+                <c:pt idx="0">
+                  <c:v>37970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38336</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38457</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38487</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38518</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38548</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38579</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38610</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38640</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38671</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38701</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38732</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38763</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38791</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38822</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38852</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38883</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38913</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38944</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38975</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39036</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39066</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39097</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39128</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39187</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>39217</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39248</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>39278</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>39309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39340</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39370</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39431</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39462</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39493</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39522</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39553</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39583</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39614</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39644</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39675</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>39706</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>39736</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>39767</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39797</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>39828</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39859</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39887</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39918</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39948</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39979</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40009</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40040</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40071</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40101</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40132</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40162</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40193</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40224</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40252</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40283</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40313</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40344</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40374</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40405</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40436</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40466</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40497</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>40527</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40558</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>40589</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40648</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>40678</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40709</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40739</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40770</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>40801</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40831</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>40862</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40892</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>40923</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40954</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40983</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41014</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41044</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41075</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41105</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41136</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41167</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41197</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41228</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41258</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41289</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41320</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41348</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41379</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41409</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41440</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41470</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41501</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41532</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41562</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41593</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41654</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41685</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41713</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41744</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41835</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41866</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41897</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41927</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41958</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41988</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>42019</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42050</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42109</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42139</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42170</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>42200</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>42231</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>42262</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>42292</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>42323</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>42353</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>42384</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>42415</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>42444</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>42475</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>42719</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>42750</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>42931</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42962</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42993</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43023</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43054</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43084</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43146</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43174</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43205</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43235</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43266</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43296</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>43327</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43358</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43388</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43419</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43449</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43480</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43511</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43539</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43570</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43600</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43631</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43661</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43692</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43723</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43753</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43784</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43814</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43845</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44301</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44331</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44362</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44423</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44576</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44607</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44635</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'brent gas compared '!$C$2:$C$223</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="222"/>
+                <c:pt idx="0">
+                  <c:v>32.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.98</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.78</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48.52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>107.47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.44</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45.02</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43.74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.57</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37.71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54.82</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56.27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46.89</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32.22</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23.27</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.88</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.36</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.07</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>54.27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50.58</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>52.28</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51.18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>53.54</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>57.93</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>60.58</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>65.38</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62.24</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>78.64</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85.26</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>76.11</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.97</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>58.53</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>33.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31.97</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28.51</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26.19</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25.99</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22.29</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>32.42</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>36.81</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>29.57</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>33.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>38.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>31.34</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>29.71</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>33.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>36.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45.49</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41.83</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>47.32</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>47.61</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>61.07</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>52.66</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>54.73</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>64.06</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>57.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>58.34</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>57.29</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>52.23</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>68.06</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>66.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>60.08</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>54.31</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>59.38</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>57.87</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>53.98</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>55.57</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>54.69</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>58.91</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>62.07</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>66.34</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>67.66</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>64.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>64.94</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>67.33</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>67.75</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>63.93</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>65.13</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>65.02</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>66.27</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>65.19</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>67.83</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>71.59</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>68.91</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>61.12</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>56.15</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>51.27</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>46.27</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44.14</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41.51</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>55.79</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>54.07</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>58.27</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>49.81</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>45.86</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>50.03</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>45.89</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>41.94</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41.89</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42.13</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>42.35</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>40.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>39.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>38.65</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>33.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>30.59</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>29.34</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>28.02</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>28.61</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>34.71</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>36.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>32.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>50.92</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>53.63</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>55.19</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>39.65</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>38.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44.91</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>47.32</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>50.38</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>56.43</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>48.95</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>46.67</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>47.36</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>53.09</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>57.56</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>55.24</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>58.55</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>67.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>75.06</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>68.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>67.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>61.07</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>51.52</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44.11</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>34.61</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>33.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>27.57</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>25.65</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>29.76</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>33.03</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43.18</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>42.64</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>42.76</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>31.07</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>24.18</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>16.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>13.87</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>16.22</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>15.64</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>28.95</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43.67</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>53.15</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>39.79</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>60.24</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>60.68</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>85.87</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>103.75</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>127.71</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>251.18</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>165.98</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>238.31</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>170.64</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>203.08</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>237.78</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>299.32</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>163.68</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>135.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB8F-344E-9F23-AA00694F3203}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="771528127"/>
+        <c:axId val="1182217680"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="771528127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1182217680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1182217680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771528127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.462993638763454E-2"/>
+          <c:y val="4.3216457898998938E-2"/>
+          <c:w val="0.29804079965508634"/>
+          <c:h val="6.9839705485392006E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4632,7 +7641,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5189,6 +8754,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEDF9642-8C19-947F-3CF7-EADD8183E48A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5488,8 +9094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137F14FC-8755-6A4F-B6A7-0F9B8DFBB15E}">
   <dimension ref="A1:D425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B271" sqref="B271:B422"/>
+    <sheetView topLeftCell="A174" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10453,4 +14059,2478 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C70F50D-8ECE-524A-AB79-DC68CE5672AD}">
+  <dimension ref="A1:C223"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>37970</v>
+      </c>
+      <c r="B2">
+        <v>16.664682110427417</v>
+      </c>
+      <c r="C2" s="3">
+        <v>32.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>38001</v>
+      </c>
+      <c r="B3">
+        <v>17.14456408246711</v>
+      </c>
+      <c r="C3" s="3">
+        <v>21.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>38032</v>
+      </c>
+      <c r="B4">
+        <v>16.463188555789991</v>
+      </c>
+      <c r="C4" s="3">
+        <v>19.809999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>38061</v>
+      </c>
+      <c r="B5">
+        <v>18.24360171987853</v>
+      </c>
+      <c r="C5" s="3">
+        <v>18.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>38092</v>
+      </c>
+      <c r="B6">
+        <v>18.885640391319019</v>
+      </c>
+      <c r="C6" s="3">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>38122</v>
+      </c>
+      <c r="B7">
+        <v>20.500815776406327</v>
+      </c>
+      <c r="C7" s="3">
+        <v>21.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>38153</v>
+      </c>
+      <c r="B8">
+        <v>19.327535805111633</v>
+      </c>
+      <c r="C8" s="3">
+        <v>22.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>38183</v>
+      </c>
+      <c r="B9">
+        <v>20.975900764561157</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>38214</v>
+      </c>
+      <c r="B10">
+        <v>23.711722267715</v>
+      </c>
+      <c r="C10" s="3">
+        <v>29.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>38245</v>
+      </c>
+      <c r="B11">
+        <v>23.830420082865874</v>
+      </c>
+      <c r="C11" s="3">
+        <v>39.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>38275</v>
+      </c>
+      <c r="B12">
+        <v>27.032530810731558</v>
+      </c>
+      <c r="C12" s="3">
+        <v>40.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>38306</v>
+      </c>
+      <c r="B13">
+        <v>22.575408462505237</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>38336</v>
+      </c>
+      <c r="B14">
+        <v>20.627245361604466</v>
+      </c>
+      <c r="C14" s="3">
+        <v>33.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>38367</v>
+      </c>
+      <c r="B15">
+        <v>23.622795280960538</v>
+      </c>
+      <c r="C15" s="3">
+        <v>28.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>38398</v>
+      </c>
+      <c r="B16">
+        <v>23.697349210765722</v>
+      </c>
+      <c r="C16" s="3">
+        <v>30.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>38426</v>
+      </c>
+      <c r="B17">
+        <v>28.1026429186103</v>
+      </c>
+      <c r="C17" s="3">
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>38457</v>
+      </c>
+      <c r="B18">
+        <v>27.179408193009426</v>
+      </c>
+      <c r="C18" s="3">
+        <v>29.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>38487</v>
+      </c>
+      <c r="B19">
+        <v>26.764798760622021</v>
+      </c>
+      <c r="C19" s="3">
+        <v>29.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>38518</v>
+      </c>
+      <c r="B20">
+        <v>30.358277951120659</v>
+      </c>
+      <c r="C20" s="3">
+        <v>32.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>38548</v>
+      </c>
+      <c r="B21">
+        <v>32.786399344272013</v>
+      </c>
+      <c r="C21" s="3">
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>38579</v>
+      </c>
+      <c r="B22">
+        <v>35.477549553785806</v>
+      </c>
+      <c r="C22" s="3">
+        <v>40.78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>38610</v>
+      </c>
+      <c r="B23">
+        <v>35.651098661341194</v>
+      </c>
+      <c r="C23" s="3">
+        <v>48.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>38640</v>
+      </c>
+      <c r="B24">
+        <v>33.096183592795953</v>
+      </c>
+      <c r="C24" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>38671</v>
+      </c>
+      <c r="B25">
+        <v>31.913811909559819</v>
+      </c>
+      <c r="C25" s="3">
+        <v>107.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>38701</v>
+      </c>
+      <c r="B26">
+        <v>33.044748726824075</v>
+      </c>
+      <c r="C26" s="3">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>38732</v>
+      </c>
+      <c r="B27">
+        <v>35.415495333408302</v>
+      </c>
+      <c r="C27" s="3">
+        <v>61.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>38763</v>
+      </c>
+      <c r="B28">
+        <v>34.323318707491332</v>
+      </c>
+      <c r="C28" s="3">
+        <v>45.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>38791</v>
+      </c>
+      <c r="B29">
+        <v>35.713669139269498</v>
+      </c>
+      <c r="C29" s="3">
+        <v>43.74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>38822</v>
+      </c>
+      <c r="B30">
+        <v>38.513719073500035</v>
+      </c>
+      <c r="C30" s="3">
+        <v>39.46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>38852</v>
+      </c>
+      <c r="B31">
+        <v>37.283448243435593</v>
+      </c>
+      <c r="C31" s="3">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>38883</v>
+      </c>
+      <c r="B32">
+        <v>37.079301896690659</v>
+      </c>
+      <c r="C32" s="3">
+        <v>39.57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>38913</v>
+      </c>
+      <c r="B33">
+        <v>39.433341754914849</v>
+      </c>
+      <c r="C33" s="3">
+        <v>37.71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>38944</v>
+      </c>
+      <c r="B34">
+        <v>38.479444525598844</v>
+      </c>
+      <c r="C34" s="3">
+        <v>43.46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>38975</v>
+      </c>
+      <c r="B35">
+        <v>33.103365740367245</v>
+      </c>
+      <c r="C35" s="3">
+        <v>54.82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>39005</v>
+      </c>
+      <c r="B36">
+        <v>30.294169433544624</v>
+      </c>
+      <c r="C36" s="3">
+        <v>56.27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>39036</v>
+      </c>
+      <c r="B37">
+        <v>29.881805153950285</v>
+      </c>
+      <c r="C37" s="3">
+        <v>46.89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>39066</v>
+      </c>
+      <c r="B38">
+        <v>31.885316982516922</v>
+      </c>
+      <c r="C38" s="3">
+        <v>32.22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>39097</v>
+      </c>
+      <c r="B39">
+        <v>27.340300152490421</v>
+      </c>
+      <c r="C39" s="3">
+        <v>23.27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>39128</v>
+      </c>
+      <c r="B40">
+        <v>29.307252119251395</v>
+      </c>
+      <c r="C40" s="3">
+        <v>18.809999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>39156</v>
+      </c>
+      <c r="B41">
+        <v>31.526363762921743</v>
+      </c>
+      <c r="C41" s="3">
+        <v>20.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>39187</v>
+      </c>
+      <c r="B42">
+        <v>33.744999999999997</v>
+      </c>
+      <c r="C42" s="3">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>39217</v>
+      </c>
+      <c r="B43">
+        <v>33.947770640153628</v>
+      </c>
+      <c r="C43" s="3">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>39248</v>
+      </c>
+      <c r="B44">
+        <v>35.377933928658564</v>
+      </c>
+      <c r="C44" s="3">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>39278</v>
+      </c>
+      <c r="B45">
+        <v>37.908017498888825</v>
+      </c>
+      <c r="C45" s="3">
+        <v>28.07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>39309</v>
+      </c>
+      <c r="B46">
+        <v>35.078569849285095</v>
+      </c>
+      <c r="C46" s="3">
+        <v>27.51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>39340</v>
+      </c>
+      <c r="B47">
+        <v>37.72146144389562</v>
+      </c>
+      <c r="C47" s="3">
+        <v>42.55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>39370</v>
+      </c>
+      <c r="B48">
+        <v>39.590725942166962</v>
+      </c>
+      <c r="C48" s="3">
+        <v>54.27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>39401</v>
+      </c>
+      <c r="B49">
+        <v>44.931593702867048</v>
+      </c>
+      <c r="C49" s="3">
+        <v>50.58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>39431</v>
+      </c>
+      <c r="B50">
+        <v>45.771439789389973</v>
+      </c>
+      <c r="C50" s="3">
+        <v>52.28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>39462</v>
+      </c>
+      <c r="B51">
+        <v>46.307552883446434</v>
+      </c>
+      <c r="C51" s="3">
+        <v>51.18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>39493</v>
+      </c>
+      <c r="B52">
+        <v>47.815122243419694</v>
+      </c>
+      <c r="C52" s="3">
+        <v>53.54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>39522</v>
+      </c>
+      <c r="B53">
+        <v>52.232479893720715</v>
+      </c>
+      <c r="C53" s="3">
+        <v>57.93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>39553</v>
+      </c>
+      <c r="B54">
+        <v>54.869843218239303</v>
+      </c>
+      <c r="C54" s="3">
+        <v>60.58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>39583</v>
+      </c>
+      <c r="B55">
+        <v>62.036118357639232</v>
+      </c>
+      <c r="C55" s="3">
+        <v>65.38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>39614</v>
+      </c>
+      <c r="B56">
+        <v>66.392873002054699</v>
+      </c>
+      <c r="C56" s="3">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>39644</v>
+      </c>
+      <c r="B57">
+        <v>66.925385658039119</v>
+      </c>
+      <c r="C57" s="3">
+        <v>62.24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>39675</v>
+      </c>
+      <c r="B58">
+        <v>62.545843385738401</v>
+      </c>
+      <c r="C58" s="3">
+        <v>78.64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>39706</v>
+      </c>
+      <c r="B59">
+        <v>54.559656492447616</v>
+      </c>
+      <c r="C59" s="3">
+        <v>85.26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>39736</v>
+      </c>
+      <c r="B60">
+        <v>44.534201370742558</v>
+      </c>
+      <c r="C60" s="3">
+        <v>76.11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>39767</v>
+      </c>
+      <c r="B61">
+        <v>34.174323582954671</v>
+      </c>
+      <c r="C61" s="3">
+        <v>60.97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>39797</v>
+      </c>
+      <c r="B62">
+        <v>27.25827471155355</v>
+      </c>
+      <c r="C62" s="3">
+        <v>58.53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>39828</v>
+      </c>
+      <c r="B63">
+        <v>30.13954107969494</v>
+      </c>
+      <c r="C63" s="3">
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>39859</v>
+      </c>
+      <c r="B64">
+        <v>30.340468806468149</v>
+      </c>
+      <c r="C64" s="3">
+        <v>33.520000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>39887</v>
+      </c>
+      <c r="B65">
+        <v>32.44349575529769</v>
+      </c>
+      <c r="C65" s="3">
+        <v>31.97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>39918</v>
+      </c>
+      <c r="B66">
+        <v>33.932712067616578</v>
+      </c>
+      <c r="C66" s="3">
+        <v>28.51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>39948</v>
+      </c>
+      <c r="B67">
+        <v>35.417134104845843</v>
+      </c>
+      <c r="C67" s="3">
+        <v>26.19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>39979</v>
+      </c>
+      <c r="B68">
+        <v>41.665477410096756</v>
+      </c>
+      <c r="C68" s="3">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>40009</v>
+      </c>
+      <c r="B69">
+        <v>38.575069035844763</v>
+      </c>
+      <c r="C69" s="3">
+        <v>22.29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>40040</v>
+      </c>
+      <c r="B70">
+        <v>44.506642851224072</v>
+      </c>
+      <c r="C70" s="3">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>40071</v>
+      </c>
+      <c r="B71">
+        <v>42.275833408844491</v>
+      </c>
+      <c r="C71" s="3">
+        <v>32.42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>40101</v>
+      </c>
+      <c r="B72">
+        <v>44.242703176269814</v>
+      </c>
+      <c r="C72" s="3">
+        <v>36.81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>40132</v>
+      </c>
+      <c r="B73">
+        <v>46.579369337456164</v>
+      </c>
+      <c r="C73" s="3">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>40162</v>
+      </c>
+      <c r="B74">
+        <v>46.014032858691309</v>
+      </c>
+      <c r="C74" s="3">
+        <v>33.72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>40193</v>
+      </c>
+      <c r="B75">
+        <v>47.677856180250714</v>
+      </c>
+      <c r="C75" s="3">
+        <v>38.770000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>40224</v>
+      </c>
+      <c r="B76">
+        <v>48.582062514409934</v>
+      </c>
+      <c r="C76" s="3">
+        <v>31.34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>40252</v>
+      </c>
+      <c r="B77">
+        <v>51.917448425023643</v>
+      </c>
+      <c r="C77" s="3">
+        <v>29.71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>40283</v>
+      </c>
+      <c r="B78">
+        <v>55.437509926399215</v>
+      </c>
+      <c r="C78" s="3">
+        <v>33.130000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>40313</v>
+      </c>
+      <c r="B79">
+        <v>52.299922669107097</v>
+      </c>
+      <c r="C79" s="3">
+        <v>36.630000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>40344</v>
+      </c>
+      <c r="B80">
+        <v>50.025661906555868</v>
+      </c>
+      <c r="C80" s="3">
+        <v>45.49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>40374</v>
+      </c>
+      <c r="B81">
+        <v>48.145984638895555</v>
+      </c>
+      <c r="C81" s="3">
+        <v>40.659999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>40405</v>
+      </c>
+      <c r="B82">
+        <v>49.812524125516703</v>
+      </c>
+      <c r="C82" s="3">
+        <v>41.83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>40436</v>
+      </c>
+      <c r="B83">
+        <v>49.278953442657823</v>
+      </c>
+      <c r="C83" s="3">
+        <v>47.32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>40466</v>
+      </c>
+      <c r="B84">
+        <v>52.408628817328633</v>
+      </c>
+      <c r="C84" s="3">
+        <v>47.61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>40497</v>
+      </c>
+      <c r="B85">
+        <v>54.820550763971433</v>
+      </c>
+      <c r="C85" s="3">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>40527</v>
+      </c>
+      <c r="B86">
+        <v>59.240401370723781</v>
+      </c>
+      <c r="C86" s="3">
+        <v>61.07</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>40558</v>
+      </c>
+      <c r="B87">
+        <v>60.975532714649418</v>
+      </c>
+      <c r="C87" s="3">
+        <v>52.66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>40589</v>
+      </c>
+      <c r="B88">
+        <v>64.420479650594046</v>
+      </c>
+      <c r="C88" s="3">
+        <v>54.73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>40617</v>
+      </c>
+      <c r="B89">
+        <v>71.319833744658325</v>
+      </c>
+      <c r="C89" s="3">
+        <v>64.06</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>40648</v>
+      </c>
+      <c r="B90">
+        <v>74.029941105175851</v>
+      </c>
+      <c r="C90" s="3">
+        <v>57.89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>40678</v>
+      </c>
+      <c r="B91">
+        <v>69.742603153731523</v>
+      </c>
+      <c r="C91" s="3">
+        <v>58.34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>40709</v>
+      </c>
+      <c r="B92">
+        <v>70.807943328763344</v>
+      </c>
+      <c r="C92" s="3">
+        <v>57.29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>40739</v>
+      </c>
+      <c r="B93">
+        <v>71.460470697052685</v>
+      </c>
+      <c r="C93" s="3">
+        <v>52.23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>40770</v>
+      </c>
+      <c r="B94">
+        <v>67.587994086203821</v>
+      </c>
+      <c r="C94" s="3">
+        <v>68.06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>40801</v>
+      </c>
+      <c r="B95">
+        <v>72.329658621704283</v>
+      </c>
+      <c r="C95" s="3">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>40831</v>
+      </c>
+      <c r="B96">
+        <v>67.993306802185714</v>
+      </c>
+      <c r="C96" s="3">
+        <v>66.790000000000006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>40862</v>
+      </c>
+      <c r="B97">
+        <v>71.015742453335207</v>
+      </c>
+      <c r="C97" s="3">
+        <v>60.08</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>40892</v>
+      </c>
+      <c r="B98">
+        <v>69.973118698073165</v>
+      </c>
+      <c r="C98" s="3">
+        <v>54.31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>40923</v>
+      </c>
+      <c r="B99">
+        <v>70.46525914396392</v>
+      </c>
+      <c r="C99" s="3">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>40954</v>
+      </c>
+      <c r="B100">
+        <v>74.94637939210088</v>
+      </c>
+      <c r="C100" s="3">
+        <v>59.38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>40983</v>
+      </c>
+      <c r="B101">
+        <v>78.323471880656129</v>
+      </c>
+      <c r="C101" s="3">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>41014</v>
+      </c>
+      <c r="B102">
+        <v>73.550457149104432</v>
+      </c>
+      <c r="C102" s="3">
+        <v>57.87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>41044</v>
+      </c>
+      <c r="B103">
+        <v>71.265304698898589</v>
+      </c>
+      <c r="C103" s="3">
+        <v>53.98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>41075</v>
+      </c>
+      <c r="B104">
+        <v>60.584568506847596</v>
+      </c>
+      <c r="C104" s="3">
+        <v>55.57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>41105</v>
+      </c>
+      <c r="B105">
+        <v>65.307358883092704</v>
+      </c>
+      <c r="C105" s="3">
+        <v>54.69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>41136</v>
+      </c>
+      <c r="B106">
+        <v>71.790864143895845</v>
+      </c>
+      <c r="C106" s="3">
+        <v>58.91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>41167</v>
+      </c>
+      <c r="B107">
+        <v>69.903215696573227</v>
+      </c>
+      <c r="C107" s="3">
+        <v>62.07</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>41197</v>
+      </c>
+      <c r="B108">
+        <v>69.494774050224606</v>
+      </c>
+      <c r="C108" s="3">
+        <v>66.34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>41228</v>
+      </c>
+      <c r="B109">
+        <v>67.987983345250669</v>
+      </c>
+      <c r="C109" s="3">
+        <v>67.66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>41258</v>
+      </c>
+      <c r="B110">
+        <v>67.741472456709545</v>
+      </c>
+      <c r="C110" s="3">
+        <v>64.510000000000005</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>41289</v>
+      </c>
+      <c r="B111">
+        <v>71.503672349107049</v>
+      </c>
+      <c r="C111" s="3">
+        <v>64.94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>41320</v>
+      </c>
+      <c r="B112">
+        <v>76.511775099554299</v>
+      </c>
+      <c r="C112" s="3">
+        <v>67.33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>41348</v>
+      </c>
+      <c r="B113">
+        <v>71.375412825201636</v>
+      </c>
+      <c r="C113" s="3">
+        <v>67.75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>41379</v>
+      </c>
+      <c r="B114">
+        <v>65.992137738660801</v>
+      </c>
+      <c r="C114" s="3">
+        <v>63.93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>41409</v>
+      </c>
+      <c r="B115">
+        <v>67.344975556584288</v>
+      </c>
+      <c r="C115" s="3">
+        <v>65.13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>41440</v>
+      </c>
+      <c r="B116">
+        <v>67.691510345449018</v>
+      </c>
+      <c r="C116" s="3">
+        <v>65.02</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>41470</v>
+      </c>
+      <c r="B117">
+        <v>70.810731371916106</v>
+      </c>
+      <c r="C117" s="3">
+        <v>66.27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>41501</v>
+      </c>
+      <c r="B118">
+        <v>71.742217987259437</v>
+      </c>
+      <c r="C118" s="3">
+        <v>65.19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>41532</v>
+      </c>
+      <c r="B119">
+        <v>69.021264857971431</v>
+      </c>
+      <c r="C119" s="3">
+        <v>67.83</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>41562</v>
+      </c>
+      <c r="B120">
+        <v>68.06375829503655</v>
+      </c>
+      <c r="C120" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>41593</v>
+      </c>
+      <c r="B121">
+        <v>65.850002016003401</v>
+      </c>
+      <c r="C121" s="3">
+        <v>71.59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>41623</v>
+      </c>
+      <c r="B122">
+        <v>67.147132000252199</v>
+      </c>
+      <c r="C122" s="3">
+        <v>68.91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>41654</v>
+      </c>
+      <c r="B123">
+        <v>65.533706945772863</v>
+      </c>
+      <c r="C123" s="3">
+        <v>61.12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>41685</v>
+      </c>
+      <c r="B124">
+        <v>65.240912102698431</v>
+      </c>
+      <c r="C124" s="3">
+        <v>56.15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>41713</v>
+      </c>
+      <c r="B125">
+        <v>64.576133507010368</v>
+      </c>
+      <c r="C125" s="3">
+        <v>51.27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>41744</v>
+      </c>
+      <c r="B126">
+        <v>64.050403435517183</v>
+      </c>
+      <c r="C126" s="3">
+        <v>46.27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>41774</v>
+      </c>
+      <c r="B127">
+        <v>65.361427091637267</v>
+      </c>
+      <c r="C127" s="3">
+        <v>44.14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>41805</v>
+      </c>
+      <c r="B128">
+        <v>65.633323412017006</v>
+      </c>
+      <c r="C128" s="3">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>41835</v>
+      </c>
+      <c r="B129">
+        <v>63.139518999513307</v>
+      </c>
+      <c r="C129" s="3">
+        <v>41.51</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>41866</v>
+      </c>
+      <c r="B130">
+        <v>61.244417120228562</v>
+      </c>
+      <c r="C130" s="3">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>41897</v>
+      </c>
+      <c r="B131">
+        <v>59.7763849724791</v>
+      </c>
+      <c r="C131" s="3">
+        <v>55.79</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>41927</v>
+      </c>
+      <c r="B132">
+        <v>54.640266682998963</v>
+      </c>
+      <c r="C132" s="3">
+        <v>54.07</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>41958</v>
+      </c>
+      <c r="B133">
+        <v>50.88051341666106</v>
+      </c>
+      <c r="C133" s="3">
+        <v>58.27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>41988</v>
+      </c>
+      <c r="B134">
+        <v>40.040978736660236</v>
+      </c>
+      <c r="C134" s="3">
+        <v>49.81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>42019</v>
+      </c>
+      <c r="B135">
+        <v>31.692103516921037</v>
+      </c>
+      <c r="C135" s="3">
+        <v>45.86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>42050</v>
+      </c>
+      <c r="B136">
+        <v>37.634286713671742</v>
+      </c>
+      <c r="C136" s="3">
+        <v>50.03</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>42078</v>
+      </c>
+      <c r="B137">
+        <v>37.740282839414384</v>
+      </c>
+      <c r="C137" s="3">
+        <v>45.89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B138">
+        <v>38.582057528233229</v>
+      </c>
+      <c r="C138" s="3">
+        <v>41.94</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>42139</v>
+      </c>
+      <c r="B139">
+        <v>41.830133624037963</v>
+      </c>
+      <c r="C139" s="3">
+        <v>41.89</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>42170</v>
+      </c>
+      <c r="B140">
+        <v>39.079756902045709</v>
+      </c>
+      <c r="C140" s="3">
+        <v>42.13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>42200</v>
+      </c>
+      <c r="B141">
+        <v>36.246465713253031</v>
+      </c>
+      <c r="C141" s="3">
+        <v>42.35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>42231</v>
+      </c>
+      <c r="B142">
+        <v>30.172408201810086</v>
+      </c>
+      <c r="C142" s="3">
+        <v>40.880000000000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>42262</v>
+      </c>
+      <c r="B143">
+        <v>31.415857685241075</v>
+      </c>
+      <c r="C143" s="3">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>42292</v>
+      </c>
+      <c r="B144">
+        <v>31.388942899734268</v>
+      </c>
+      <c r="C144" s="3">
+        <v>39.450000000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>42323</v>
+      </c>
+      <c r="B145">
+        <v>29.436895527945769</v>
+      </c>
+      <c r="C145" s="3">
+        <v>38.65</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>42353</v>
+      </c>
+      <c r="B146">
+        <v>25.649140541229929</v>
+      </c>
+      <c r="C146" s="3">
+        <v>33.130000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>42384</v>
+      </c>
+      <c r="B147">
+        <v>21.549863365442864</v>
+      </c>
+      <c r="C147" s="3">
+        <v>30.59</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>42415</v>
+      </c>
+      <c r="B148">
+        <v>23.214643837731227</v>
+      </c>
+      <c r="C148" s="3">
+        <v>29.34</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>42444</v>
+      </c>
+      <c r="B149">
+        <v>26.58270030422965</v>
+      </c>
+      <c r="C149" s="3">
+        <v>28.02</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>42475</v>
+      </c>
+      <c r="B150">
+        <v>28.446135006259791</v>
+      </c>
+      <c r="C150" s="3">
+        <v>28.61</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>42505</v>
+      </c>
+      <c r="B151">
+        <v>31.936984244011136</v>
+      </c>
+      <c r="C151" s="3">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>42536</v>
+      </c>
+      <c r="B152">
+        <v>35.831407472537919</v>
+      </c>
+      <c r="C152" s="3">
+        <v>34.71</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>42566</v>
+      </c>
+      <c r="B153">
+        <v>34.010954629613515</v>
+      </c>
+      <c r="C153" s="3">
+        <v>36.619999999999997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>42597</v>
+      </c>
+      <c r="B154">
+        <v>35.017172470269017</v>
+      </c>
+      <c r="C154" s="3">
+        <v>32.049999999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>42628</v>
+      </c>
+      <c r="B155">
+        <v>35.92410656430701</v>
+      </c>
+      <c r="C155" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>42658</v>
+      </c>
+      <c r="B156">
+        <v>40.537067022048177</v>
+      </c>
+      <c r="C156" s="3">
+        <v>50.92</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>42689</v>
+      </c>
+      <c r="B157">
+        <v>35.806371821113828</v>
+      </c>
+      <c r="C157" s="3">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>42719</v>
+      </c>
+      <c r="B158">
+        <v>43.200832412212598</v>
+      </c>
+      <c r="C158" s="3">
+        <v>53.63</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>42750</v>
+      </c>
+      <c r="B159">
+        <v>43.664000000000001</v>
+      </c>
+      <c r="C159" s="3">
+        <v>55.19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>42781</v>
+      </c>
+      <c r="B160">
+        <v>44.109986365858049</v>
+      </c>
+      <c r="C160" s="3">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>42809</v>
+      </c>
+      <c r="B161">
+        <v>41.343209544118793</v>
+      </c>
+      <c r="C161" s="3">
+        <v>39.65</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>42840</v>
+      </c>
+      <c r="B162">
+        <v>40.451328877578092</v>
+      </c>
+      <c r="C162" s="3">
+        <v>38.159999999999997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>42870</v>
+      </c>
+      <c r="B163">
+        <v>39.292623479391864</v>
+      </c>
+      <c r="C163" s="3">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>42901</v>
+      </c>
+      <c r="B164">
+        <v>35.638581589064174</v>
+      </c>
+      <c r="C164" s="3">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>42931</v>
+      </c>
+      <c r="B165">
+        <v>36.881167781926401</v>
+      </c>
+      <c r="C165" s="3">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B166">
+        <v>40.013745534249288</v>
+      </c>
+      <c r="C166" s="3">
+        <v>44.91</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>42993</v>
+      </c>
+      <c r="B167">
+        <v>41.913181863647424</v>
+      </c>
+      <c r="C167" s="3">
+        <v>47.32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>43023</v>
+      </c>
+      <c r="B168">
+        <v>43.527028990772358</v>
+      </c>
+      <c r="C168" s="3">
+        <v>50.38</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>43054</v>
+      </c>
+      <c r="B169">
+        <v>46.738375403585245</v>
+      </c>
+      <c r="C169" s="3">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>43084</v>
+      </c>
+      <c r="B170">
+        <v>47.624790342163074</v>
+      </c>
+      <c r="C170" s="3">
+        <v>56.43</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B171">
+        <v>48.799509461792553</v>
+      </c>
+      <c r="C171" s="3">
+        <v>48.95</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>43146</v>
+      </c>
+      <c r="B172">
+        <v>46.972259615937773</v>
+      </c>
+      <c r="C172" s="3">
+        <v>46.67</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B173">
+        <v>47.099983662683641</v>
+      </c>
+      <c r="C173" s="3">
+        <v>47.36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>43205</v>
+      </c>
+      <c r="B174">
+        <v>52.363396598811853</v>
+      </c>
+      <c r="C174" s="3">
+        <v>53.09</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B175">
+        <v>57.951332323563861</v>
+      </c>
+      <c r="C175" s="3">
+        <v>57.56</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>43266</v>
+      </c>
+      <c r="B176">
+        <v>56.328368422805681</v>
+      </c>
+      <c r="C176" s="3">
+        <v>55.24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>43296</v>
+      </c>
+      <c r="B177">
+        <v>56.526508839071127</v>
+      </c>
+      <c r="C177" s="3">
+        <v>58.55</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B178">
+        <v>55.745095884178092</v>
+      </c>
+      <c r="C178" s="3">
+        <v>67.790000000000006</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>43358</v>
+      </c>
+      <c r="B179">
+        <v>60.540203714063601</v>
+      </c>
+      <c r="C179" s="3">
+        <v>75.06</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>43388</v>
+      </c>
+      <c r="B180">
+        <v>63.758468474848328</v>
+      </c>
+      <c r="C180" s="3">
+        <v>68.180000000000007</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>43419</v>
+      </c>
+      <c r="B181">
+        <v>50.647466257836669</v>
+      </c>
+      <c r="C181" s="3">
+        <v>67.540000000000006</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>43449</v>
+      </c>
+      <c r="B182">
+        <v>45.188197498262902</v>
+      </c>
+      <c r="C182" s="3">
+        <v>61.07</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>43480</v>
+      </c>
+      <c r="B183">
+        <v>45.291816216315112</v>
+      </c>
+      <c r="C183" s="3">
+        <v>51.52</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>43511</v>
+      </c>
+      <c r="B184">
+        <v>48.024363579572082</v>
+      </c>
+      <c r="C184" s="3">
+        <v>44.11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>43539</v>
+      </c>
+      <c r="B185">
+        <v>50.701612501389427</v>
+      </c>
+      <c r="C185" s="3">
+        <v>34.61</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>43570</v>
+      </c>
+      <c r="B186">
+        <v>55.078589251981263</v>
+      </c>
+      <c r="C186" s="3">
+        <v>33.659999999999997</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>43600</v>
+      </c>
+      <c r="B187">
+        <v>56.559632663742988</v>
+      </c>
+      <c r="C187" s="3">
+        <v>27.57</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>43631</v>
+      </c>
+      <c r="B188">
+        <v>50.582900585145389</v>
+      </c>
+      <c r="C188" s="3">
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>43661</v>
+      </c>
+      <c r="B189">
+        <v>52.558873832390482</v>
+      </c>
+      <c r="C189" s="3">
+        <v>29.76</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>43692</v>
+      </c>
+      <c r="B190">
+        <v>48.55686433192367</v>
+      </c>
+      <c r="C190" s="3">
+        <v>33.03</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>43723</v>
+      </c>
+      <c r="B191">
+        <v>51.109681229495727</v>
+      </c>
+      <c r="C191" s="3">
+        <v>43.18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>43753</v>
+      </c>
+      <c r="B192">
+        <v>46.280615080303185</v>
+      </c>
+      <c r="C192" s="3">
+        <v>42.64</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>43784</v>
+      </c>
+      <c r="B193">
+        <v>48.886310904872396</v>
+      </c>
+      <c r="C193" s="3">
+        <v>42.76</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>43814</v>
+      </c>
+      <c r="B194">
+        <v>51.330623052032976</v>
+      </c>
+      <c r="C194" s="3">
+        <v>31.07</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B195">
+        <v>48.628619451447783</v>
+      </c>
+      <c r="C195" s="3">
+        <v>24.18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B196">
+        <v>43.421989813073246</v>
+      </c>
+      <c r="C196" s="3">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B197">
+        <v>25.873691766006772</v>
+      </c>
+      <c r="C197" s="3">
+        <v>16.329999999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B198">
+        <v>14.737637183106722</v>
+      </c>
+      <c r="C198" s="3">
+        <v>13.87</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B199">
+        <v>23.799128229346479</v>
+      </c>
+      <c r="C199" s="3">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B200">
+        <v>32.71172658942681</v>
+      </c>
+      <c r="C200" s="3">
+        <v>16.22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B201">
+        <v>32.962718738207862</v>
+      </c>
+      <c r="C201" s="3">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B202">
+        <v>33.496849469321262</v>
+      </c>
+      <c r="C202" s="3">
+        <v>28.95</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B203">
+        <v>31.795649801733799</v>
+      </c>
+      <c r="C203" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B204">
+        <v>31.037121756798392</v>
+      </c>
+      <c r="C204" s="3">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B205">
+        <v>32.020918233021376</v>
+      </c>
+      <c r="C205" s="3">
+        <v>43.67</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B206">
+        <v>36.674673126613087</v>
+      </c>
+      <c r="C206" s="3">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B207">
+        <v>39.960572041024342</v>
+      </c>
+      <c r="C207" s="3">
+        <v>53.15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B208">
+        <v>44.709260588657571</v>
+      </c>
+      <c r="C208" s="3">
+        <v>39.79</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B209">
+        <v>47.582501918649271</v>
+      </c>
+      <c r="C209" s="3">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>44301</v>
+      </c>
+      <c r="B210">
+        <v>46.449325011968895</v>
+      </c>
+      <c r="C210" s="3">
+        <v>60.24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>44331</v>
+      </c>
+      <c r="B211">
+        <v>48.327370865499276</v>
+      </c>
+      <c r="C211" s="3">
+        <v>60.68</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B212">
+        <v>52.850770258799734</v>
+      </c>
+      <c r="C212" s="3">
+        <v>85.87</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>44392</v>
+      </c>
+      <c r="B213">
+        <v>54.063539942793483</v>
+      </c>
+      <c r="C213" s="3">
+        <v>103.75</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B214">
+        <v>51.415432332930727</v>
+      </c>
+      <c r="C214" s="3">
+        <v>127.71</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <v>44454</v>
+      </c>
+      <c r="B215">
+        <v>55.480165226471392</v>
+      </c>
+      <c r="C215" s="3">
+        <v>251.18</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B216">
+        <v>61.022644265887514</v>
+      </c>
+      <c r="C216" s="3">
+        <v>165.98</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B217">
+        <v>60.870969316675492</v>
+      </c>
+      <c r="C217" s="3">
+        <v>238.31</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
+        <v>44545</v>
+      </c>
+      <c r="B218">
+        <v>54.9473751275154</v>
+      </c>
+      <c r="C218" s="3">
+        <v>170.64</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>44576</v>
+      </c>
+      <c r="B219">
+        <v>64.543372982506668</v>
+      </c>
+      <c r="C219" s="3">
+        <v>203.08</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B220">
+        <v>72.62995512690614</v>
+      </c>
+      <c r="C220" s="3">
+        <v>237.78</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
+        <v>44635</v>
+      </c>
+      <c r="B221">
+        <v>89.238961007330914</v>
+      </c>
+      <c r="C221" s="3">
+        <v>299.32</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <v>44666</v>
+      </c>
+      <c r="B222">
+        <v>83.165076075607217</v>
+      </c>
+      <c r="C222" s="3">
+        <v>163.68</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
+        <v>44696</v>
+      </c>
+      <c r="B223">
+        <v>89.617949524868308</v>
+      </c>
+      <c r="C223" s="3">
+        <v>135.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/brent price.xlsx
+++ b/data/brent price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucruffie/Desktop/Imperial/thesis/VAR model/GasPriceDecomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EC622B-A8A8-424E-9D5E-E56B618F2F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78588522-EFD2-334F-BF5C-85011054EC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{95A3DC4A-EE4A-C34D-8D2F-E4941A96392C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{95A3DC4A-EE4A-C34D-8D2F-E4941A96392C}"/>
   </bookViews>
   <sheets>
     <sheet name="brent price" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7429,12 +7430,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7487,12 +7485,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7520,8 +7515,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.462993638763454E-2"/>
-          <c:y val="4.3216457898998938E-2"/>
+          <c:x val="5.5584238137076726E-2"/>
+          <c:y val="0.15513219136133383"/>
           <c:w val="0.29804079965508634"/>
           <c:h val="6.9839705485392006E-2"/>
         </c:manualLayout>
@@ -7541,12 +7536,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -8766,8 +8758,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>62716</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9094,8 +9086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137F14FC-8755-6A4F-B6A7-0F9B8DFBB15E}">
   <dimension ref="A1:D425"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G197" sqref="G197"/>
+    <sheetView topLeftCell="A241" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J281" sqref="J281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14065,8 +14057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C70F50D-8ECE-524A-AB79-DC68CE5672AD}">
   <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
